--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_13_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_13_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>942772.6450441564</v>
+        <v>995889.8945598596</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4065790.38118324</v>
+        <v>4065790.381183235</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7318235.112683862</v>
+        <v>7318235.11268386</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>34.06259291064552</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1420,11 +1420,11 @@
         <v>81.49971487426106</v>
       </c>
       <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>34.06259291064552</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,70 +1448,70 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8.951109709083239</v>
+      </c>
+      <c r="H12" t="n">
+        <v>106.6111980758233</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="V12" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>64.00123621872456</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="W12" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>51.56107156618207</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.28204657123847</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>70.28204657123851</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S14" t="n">
         <v>131.2015301826823</v>
@@ -1663,7 +1663,7 @@
         <v>131.2015301826823</v>
       </c>
       <c r="U14" t="n">
-        <v>131.2015301826823</v>
+        <v>34.06259291064552</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="T15" t="n">
-        <v>51.56107156618207</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>51.56107156618204</v>
       </c>
       <c r="V15" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1764,14 +1764,14 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>115.5623077849066</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="T16" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="F17" t="n">
         <v>131.2015301826823</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="I17" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>131.2015301826823</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
     </row>
     <row r="19">
@@ -2001,73 +2001,73 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="C19" t="n">
-        <v>131.2015301826823</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>115.5623077849066</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.06259291064555</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2095,47 +2095,47 @@
         <v>131.2015301826823</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>81.49971487426106</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2171,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>8.951109709083225</v>
       </c>
       <c r="G21" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>131.2015301826823</v>
       </c>
       <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="U21" t="n">
-        <v>115.5623077849066</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>115.5623077849066</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>168.5152279305241</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T23" t="n">
         <v>218.3313648658995</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2585806574976</v>
+        <v>140.7649297138926</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>78.36053261150359</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,7 +2399,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>69.34652732857948</v>
+        <v>52.13450605177061</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T24" t="n">
         <v>197.8174615641865</v>
       </c>
       <c r="U24" t="n">
-        <v>111.1997630574034</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.5027591842993</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>140.7683627807171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.46181372136808</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2923991651731</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>222.8744991677805</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>168.5152279305241</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>218.3313648658995</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2585806574976</v>
+        <v>137.11019239765</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>225.2355211667293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>41.65783817478292</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2651,10 +2651,10 @@
         <v>136.761170149299</v>
       </c>
       <c r="H27" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U27" t="n">
         <v>225.903069777428</v>
@@ -2696,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>98.099402798041</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>23.41615343157269</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>45.28026121366808</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>222.6438999963626</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>248.6194926403607</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>63.70650149787027</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I29" t="n">
-        <v>168.5152279305241</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2882,7 +2882,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>136.6635638303394</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>136.761170149299</v>
@@ -2891,7 +2891,7 @@
         <v>106.6111980758233</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S30" t="n">
         <v>160.8663307357858</v>
@@ -2936,7 +2936,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>57.84425775468031</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.8595577750547</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>283.3073405578989</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>222.6438999963626</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>375.8025251520408</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>182.5269460402234</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,7 +3110,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>88.45944595401673</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3119,13 +3119,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>106.3750660200209</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U33" t="n">
         <v>225.903069777428</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.5027591842993</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.8045813735997</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U34" t="n">
-        <v>283.4572429439165</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>414.2143343858988</v>
       </c>
       <c r="H35" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>168.5152279305241</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>15.33524826841884</v>
       </c>
       <c r="S35" t="n">
         <v>184.2180832787735</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>123.0611302913717</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>53.8608220948073</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3356,16 +3356,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>98.55646772987568</v>
       </c>
       <c r="H36" t="n">
         <v>106.6111980758233</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>103.6252627619792</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>217.3118876634532</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U38" t="n">
-        <v>149.1400673459406</v>
+        <v>149.6085137083025</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>46.95294116253211</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.761170149299</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>74.08324602088001</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>160.8663307357858</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.8174615641865</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>116.2104218452887</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>140.7683627807171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.5389777771819</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>146.5829257285442</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>119.6278231842774</v>
       </c>
       <c r="G41" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>168.5152279305241</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3827,10 +3827,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>44.31123252031098</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>158.0961669993763</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U42" t="n">
         <v>225.903069777428</v>
@@ -3942,22 +3942,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>45.28026121366808</v>
       </c>
       <c r="R43" t="n">
         <v>155.3412370008718</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>93.03714820747516</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>135.241007979987</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>100.1242204180971</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>132.6305641692889</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>72.19162088388063</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>86.18928890821044</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.8595577750547</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>127.9661035570272</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>128.1160059430447</v>
       </c>
     </row>
   </sheetData>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.4295800846427</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="C11" t="n">
-        <v>177.4295800846427</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="D11" t="n">
-        <v>177.4295800846427</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="E11" t="n">
         <v>143.0229205789402</v>
@@ -5041,16 +5041,16 @@
         <v>10.49612241461459</v>
       </c>
       <c r="J11" t="n">
-        <v>10.49612241461459</v>
+        <v>90.11941249266594</v>
       </c>
       <c r="K11" t="n">
-        <v>10.49612241461459</v>
+        <v>220.0089273735215</v>
       </c>
       <c r="L11" t="n">
-        <v>140.3856372954701</v>
+        <v>220.0089273735215</v>
       </c>
       <c r="M11" t="n">
-        <v>158.5579427033263</v>
+        <v>288.4474575841818</v>
       </c>
       <c r="N11" t="n">
         <v>288.4474575841818</v>
@@ -5068,7 +5068,7 @@
         <v>442.483176413294</v>
       </c>
       <c r="S11" t="n">
-        <v>309.9563782489683</v>
+        <v>442.483176413294</v>
       </c>
       <c r="T11" t="n">
         <v>309.9563782489683</v>
@@ -5080,13 +5080,13 @@
         <v>309.9563782489683</v>
       </c>
       <c r="W11" t="n">
-        <v>309.9563782489683</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="X11" t="n">
-        <v>309.9563782489683</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="Y11" t="n">
-        <v>309.9563782489683</v>
+        <v>143.0229205789402</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>143.0229205789402</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="C12" t="n">
-        <v>143.0229205789402</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="D12" t="n">
-        <v>143.0229205789402</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="E12" t="n">
-        <v>143.0229205789402</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="F12" t="n">
-        <v>143.0229205789402</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="G12" t="n">
-        <v>10.49612241461459</v>
+        <v>118.1842012790826</v>
       </c>
       <c r="H12" t="n">
         <v>10.49612241461459</v>
@@ -5123,16 +5123,16 @@
         <v>64.22582882795403</v>
       </c>
       <c r="K12" t="n">
-        <v>64.22582882795403</v>
+        <v>194.1153437088096</v>
       </c>
       <c r="L12" t="n">
         <v>194.1153437088096</v>
       </c>
       <c r="M12" t="n">
-        <v>245.1112209220098</v>
+        <v>199.4805673353962</v>
       </c>
       <c r="N12" t="n">
-        <v>265.0270909690183</v>
+        <v>329.3700822162517</v>
       </c>
       <c r="O12" t="n">
         <v>394.9166058498739</v>
@@ -5144,28 +5144,28 @@
         <v>524.8061207307294</v>
       </c>
       <c r="R12" t="n">
-        <v>460.1584073784824</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="S12" t="n">
-        <v>327.6316092141568</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="T12" t="n">
-        <v>327.6316092141568</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="U12" t="n">
-        <v>327.6316092141568</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="V12" t="n">
-        <v>327.6316092141568</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="W12" t="n">
-        <v>275.5497187432658</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="X12" t="n">
-        <v>275.5497187432658</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="Y12" t="n">
-        <v>275.5497187432658</v>
+        <v>127.2257262377526</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.49612241461459</v>
+        <v>346.54168497684</v>
       </c>
       <c r="C13" t="n">
-        <v>10.49612241461459</v>
+        <v>346.54168497684</v>
       </c>
       <c r="D13" t="n">
-        <v>10.49612241461459</v>
+        <v>346.54168497684</v>
       </c>
       <c r="E13" t="n">
-        <v>10.49612241461459</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="F13" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="G13" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="H13" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="I13" t="n">
         <v>10.49612241461459</v>
@@ -5202,13 +5202,13 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K13" t="n">
-        <v>44.60440993881295</v>
+        <v>44.60440993881303</v>
       </c>
       <c r="L13" t="n">
-        <v>143.7777095003619</v>
+        <v>143.777709500362</v>
       </c>
       <c r="M13" t="n">
-        <v>258.73117185987</v>
+        <v>258.7311718598701</v>
       </c>
       <c r="N13" t="n">
         <v>376.3859142399439</v>
@@ -5223,28 +5223,28 @@
         <v>479.0684831411656</v>
       </c>
       <c r="R13" t="n">
-        <v>479.0684831411656</v>
+        <v>346.54168497684</v>
       </c>
       <c r="S13" t="n">
-        <v>479.0684831411656</v>
+        <v>346.54168497684</v>
       </c>
       <c r="T13" t="n">
         <v>346.54168497684</v>
       </c>
       <c r="U13" t="n">
-        <v>214.0148868125144</v>
+        <v>346.54168497684</v>
       </c>
       <c r="V13" t="n">
-        <v>81.48808864818881</v>
+        <v>346.54168497684</v>
       </c>
       <c r="W13" t="n">
-        <v>81.48808864818881</v>
+        <v>346.54168497684</v>
       </c>
       <c r="X13" t="n">
-        <v>81.48808864818881</v>
+        <v>346.54168497684</v>
       </c>
       <c r="Y13" t="n">
-        <v>81.48808864818881</v>
+        <v>346.54168497684</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>127.2257262377526</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="C14" t="n">
-        <v>127.2257262377526</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="D14" t="n">
-        <v>127.2257262377526</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="E14" t="n">
-        <v>127.2257262377526</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="F14" t="n">
-        <v>127.2257262377526</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="G14" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="H14" t="n">
         <v>10.49612241461459</v>
@@ -5278,19 +5278,19 @@
         <v>10.49612241461459</v>
       </c>
       <c r="J14" t="n">
-        <v>10.49612241461459</v>
+        <v>90.11941249266594</v>
       </c>
       <c r="K14" t="n">
-        <v>10.49612241461459</v>
+        <v>90.11941249266594</v>
       </c>
       <c r="L14" t="n">
-        <v>10.49612241461459</v>
+        <v>90.11941249266594</v>
       </c>
       <c r="M14" t="n">
-        <v>140.3856372954701</v>
+        <v>220.0089273735215</v>
       </c>
       <c r="N14" t="n">
-        <v>158.5579427033263</v>
+        <v>288.4474575841818</v>
       </c>
       <c r="O14" t="n">
         <v>288.4474575841818</v>
@@ -5302,28 +5302,28 @@
         <v>524.8061207307294</v>
       </c>
       <c r="R14" t="n">
-        <v>524.8061207307294</v>
+        <v>442.483176413294</v>
       </c>
       <c r="S14" t="n">
-        <v>392.2793225664038</v>
+        <v>309.9563782489683</v>
       </c>
       <c r="T14" t="n">
-        <v>259.7525244020782</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="U14" t="n">
-        <v>127.2257262377526</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="V14" t="n">
-        <v>127.2257262377526</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="W14" t="n">
-        <v>127.2257262377526</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="X14" t="n">
-        <v>127.2257262377526</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="Y14" t="n">
-        <v>127.2257262377526</v>
+        <v>143.0229205789402</v>
       </c>
     </row>
     <row r="15">
@@ -5339,13 +5339,13 @@
         <v>143.0229205789402</v>
       </c>
       <c r="D15" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="E15" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="F15" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="G15" t="n">
         <v>10.49612241461459</v>
@@ -5357,25 +5357,25 @@
         <v>10.49612241461459</v>
       </c>
       <c r="J15" t="n">
-        <v>64.22582882795403</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="K15" t="n">
-        <v>194.1153437088096</v>
+        <v>140.3856372954701</v>
       </c>
       <c r="L15" t="n">
-        <v>324.0048585896651</v>
+        <v>270.2751521763256</v>
       </c>
       <c r="M15" t="n">
-        <v>329.3700822162517</v>
+        <v>275.6403758029122</v>
       </c>
       <c r="N15" t="n">
-        <v>349.2859522632602</v>
+        <v>295.5562458499207</v>
       </c>
       <c r="O15" t="n">
-        <v>349.2859522632602</v>
+        <v>394.9166058498739</v>
       </c>
       <c r="P15" t="n">
-        <v>479.1754671441157</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="Q15" t="n">
         <v>524.8061207307294</v>
@@ -5384,16 +5384,16 @@
         <v>460.1584073784824</v>
       </c>
       <c r="S15" t="n">
-        <v>460.1584073784824</v>
+        <v>327.6316092141568</v>
       </c>
       <c r="T15" t="n">
-        <v>408.0765169075914</v>
+        <v>195.1048110498311</v>
       </c>
       <c r="U15" t="n">
-        <v>408.0765169075914</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="V15" t="n">
-        <v>275.5497187432658</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="W15" t="n">
         <v>143.0229205789402</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.49612241461459</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="C16" t="n">
-        <v>10.49612241461459</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="D16" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="E16" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="F16" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="G16" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="H16" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="I16" t="n">
         <v>10.49612241461459</v>
@@ -5439,7 +5439,7 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K16" t="n">
-        <v>44.60440993881295</v>
+        <v>44.60440993881292</v>
       </c>
       <c r="L16" t="n">
         <v>143.7777095003619</v>
@@ -5448,7 +5448,7 @@
         <v>258.73117185987</v>
       </c>
       <c r="N16" t="n">
-        <v>376.3859142399439</v>
+        <v>376.3859142399438</v>
       </c>
       <c r="O16" t="n">
         <v>469.0428162853264</v>
@@ -5463,7 +5463,7 @@
         <v>524.8061207307294</v>
       </c>
       <c r="S16" t="n">
-        <v>524.8061207307294</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="T16" t="n">
         <v>392.2793225664038</v>
@@ -5472,16 +5472,16 @@
         <v>392.2793225664038</v>
       </c>
       <c r="V16" t="n">
-        <v>259.7525244020782</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="W16" t="n">
-        <v>143.0229205789402</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="X16" t="n">
-        <v>143.0229205789402</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="Y16" t="n">
-        <v>143.0229205789402</v>
+        <v>392.2793225664038</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>392.2793225664038</v>
       </c>
       <c r="D17" t="n">
-        <v>259.7525244020782</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="E17" t="n">
-        <v>259.7525244020782</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="F17" t="n">
-        <v>127.2257262377526</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="G17" t="n">
-        <v>127.2257262377526</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="H17" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="I17" t="n">
         <v>10.49612241461459</v>
@@ -5524,13 +5524,13 @@
         <v>349.898442254377</v>
       </c>
       <c r="M17" t="n">
+        <v>349.898442254377</v>
+      </c>
+      <c r="N17" t="n">
         <v>394.9166058498739</v>
       </c>
-      <c r="N17" t="n">
-        <v>524.8061207307294</v>
-      </c>
       <c r="O17" t="n">
-        <v>524.8061207307294</v>
+        <v>394.9166058498739</v>
       </c>
       <c r="P17" t="n">
         <v>524.8061207307294</v>
@@ -5548,13 +5548,13 @@
         <v>524.8061207307294</v>
       </c>
       <c r="U17" t="n">
-        <v>392.2793225664038</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="V17" t="n">
-        <v>392.2793225664038</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="W17" t="n">
-        <v>392.2793225664038</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="X17" t="n">
         <v>392.2793225664038</v>
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>259.7525244020782</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="C18" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="D18" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="E18" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="F18" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="G18" t="n">
         <v>10.49612241461459</v>
@@ -5597,19 +5597,19 @@
         <v>64.22582882795403</v>
       </c>
       <c r="K18" t="n">
-        <v>64.22582882795403</v>
+        <v>194.1153437088096</v>
       </c>
       <c r="L18" t="n">
-        <v>64.22582882795403</v>
+        <v>194.1153437088096</v>
       </c>
       <c r="M18" t="n">
-        <v>135.1375760881628</v>
+        <v>245.1112209220098</v>
       </c>
       <c r="N18" t="n">
         <v>265.0270909690183</v>
       </c>
       <c r="O18" t="n">
-        <v>394.9166058498739</v>
+        <v>265.0270909690183</v>
       </c>
       <c r="P18" t="n">
         <v>394.9166058498739</v>
@@ -5621,16 +5621,16 @@
         <v>524.8061207307294</v>
       </c>
       <c r="S18" t="n">
+        <v>524.8061207307294</v>
+      </c>
+      <c r="T18" t="n">
+        <v>524.8061207307294</v>
+      </c>
+      <c r="U18" t="n">
+        <v>524.8061207307294</v>
+      </c>
+      <c r="V18" t="n">
         <v>392.2793225664038</v>
-      </c>
-      <c r="T18" t="n">
-        <v>392.2793225664038</v>
-      </c>
-      <c r="U18" t="n">
-        <v>392.2793225664038</v>
-      </c>
-      <c r="V18" t="n">
-        <v>259.7525244020782</v>
       </c>
       <c r="W18" t="n">
         <v>259.7525244020782</v>
@@ -5639,7 +5639,7 @@
         <v>259.7525244020782</v>
       </c>
       <c r="Y18" t="n">
-        <v>259.7525244020782</v>
+        <v>143.0229205789402</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="C19" t="n">
         <v>10.49612241461459</v>
@@ -5676,7 +5676,7 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K19" t="n">
-        <v>44.60440993881292</v>
+        <v>44.60440993881295</v>
       </c>
       <c r="L19" t="n">
         <v>143.7777095003619</v>
@@ -5703,22 +5703,22 @@
         <v>524.8061207307294</v>
       </c>
       <c r="T19" t="n">
-        <v>524.8061207307294</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="U19" t="n">
-        <v>408.0765169075914</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="V19" t="n">
         <v>275.5497187432658</v>
       </c>
       <c r="W19" t="n">
-        <v>275.5497187432658</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="X19" t="n">
-        <v>275.5497187432658</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="Y19" t="n">
-        <v>275.5497187432658</v>
+        <v>10.49612241461459</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>143.0229205789402</v>
       </c>
       <c r="G20" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="H20" t="n">
         <v>10.49612241461459</v>
@@ -5755,49 +5755,49 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K20" t="n">
-        <v>140.3856372954701</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="L20" t="n">
         <v>140.3856372954701</v>
       </c>
       <c r="M20" t="n">
-        <v>270.2751521763256</v>
+        <v>158.5579427033263</v>
       </c>
       <c r="N20" t="n">
-        <v>394.9166058498739</v>
+        <v>158.5579427033263</v>
       </c>
       <c r="O20" t="n">
-        <v>524.8061207307294</v>
+        <v>288.4474575841818</v>
       </c>
       <c r="P20" t="n">
-        <v>524.8061207307294</v>
+        <v>418.3369724650373</v>
       </c>
       <c r="Q20" t="n">
         <v>524.8061207307294</v>
       </c>
       <c r="R20" t="n">
-        <v>442.483176413294</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="S20" t="n">
-        <v>442.483176413294</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="T20" t="n">
-        <v>442.483176413294</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="U20" t="n">
-        <v>442.483176413294</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="V20" t="n">
-        <v>442.483176413294</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="W20" t="n">
-        <v>309.9563782489683</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="X20" t="n">
-        <v>309.9563782489683</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="Y20" t="n">
-        <v>309.9563782489683</v>
+        <v>275.5497187432658</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>143.0229205789402</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="C21" t="n">
-        <v>143.0229205789402</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="D21" t="n">
-        <v>143.0229205789402</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="E21" t="n">
-        <v>143.0229205789402</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="F21" t="n">
-        <v>143.0229205789402</v>
+        <v>250.7109994434082</v>
       </c>
       <c r="G21" t="n">
-        <v>10.49612241461459</v>
+        <v>118.1842012790826</v>
       </c>
       <c r="H21" t="n">
         <v>10.49612241461459</v>
@@ -5831,22 +5831,22 @@
         <v>10.49612241461459</v>
       </c>
       <c r="J21" t="n">
-        <v>10.49612241461459</v>
+        <v>64.22582882795403</v>
       </c>
       <c r="K21" t="n">
-        <v>10.49612241461459</v>
+        <v>194.1153437088096</v>
       </c>
       <c r="L21" t="n">
-        <v>10.49612241461459</v>
+        <v>194.1153437088096</v>
       </c>
       <c r="M21" t="n">
-        <v>115.2217060411543</v>
+        <v>199.4805673353962</v>
       </c>
       <c r="N21" t="n">
-        <v>135.1375760881628</v>
+        <v>329.3700822162517</v>
       </c>
       <c r="O21" t="n">
-        <v>265.0270909690183</v>
+        <v>394.9166058498739</v>
       </c>
       <c r="P21" t="n">
         <v>394.9166058498739</v>
@@ -5861,22 +5861,22 @@
         <v>392.2793225664038</v>
       </c>
       <c r="T21" t="n">
+        <v>392.2793225664038</v>
+      </c>
+      <c r="U21" t="n">
+        <v>392.2793225664038</v>
+      </c>
+      <c r="V21" t="n">
+        <v>392.2793225664038</v>
+      </c>
+      <c r="W21" t="n">
+        <v>392.2793225664038</v>
+      </c>
+      <c r="X21" t="n">
+        <v>392.2793225664038</v>
+      </c>
+      <c r="Y21" t="n">
         <v>259.7525244020782</v>
-      </c>
-      <c r="U21" t="n">
-        <v>143.0229205789402</v>
-      </c>
-      <c r="V21" t="n">
-        <v>143.0229205789402</v>
-      </c>
-      <c r="W21" t="n">
-        <v>143.0229205789402</v>
-      </c>
-      <c r="X21" t="n">
-        <v>143.0229205789402</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>143.0229205789402</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>127.2257262377526</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="C22" t="n">
-        <v>127.2257262377526</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="D22" t="n">
-        <v>10.49612241461459</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="E22" t="n">
-        <v>10.49612241461459</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="F22" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="G22" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="H22" t="n">
         <v>10.49612241461459</v>
@@ -5943,10 +5943,10 @@
         <v>524.8061207307294</v>
       </c>
       <c r="U22" t="n">
-        <v>524.8061207307294</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="V22" t="n">
-        <v>524.8061207307294</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="W22" t="n">
         <v>392.2793225664038</v>
@@ -5955,7 +5955,7 @@
         <v>392.2793225664038</v>
       </c>
       <c r="Y22" t="n">
-        <v>259.7525244020782</v>
+        <v>392.2793225664038</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>572.4818619158701</v>
+        <v>1182.212881695865</v>
       </c>
       <c r="C23" t="n">
-        <v>572.4818619158701</v>
+        <v>813.2503647554533</v>
       </c>
       <c r="D23" t="n">
-        <v>214.2161633091196</v>
+        <v>454.9846661487028</v>
       </c>
       <c r="E23" t="n">
-        <v>214.2161633091196</v>
+        <v>454.9846661487028</v>
       </c>
       <c r="F23" t="n">
-        <v>214.2161633091196</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="G23" t="n">
-        <v>214.2161633091196</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H23" t="n">
-        <v>214.2161633091196</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I23" t="n">
         <v>43.99876135909523</v>
       </c>
       <c r="J23" t="n">
-        <v>123.6220514371466</v>
+        <v>123.6220514371464</v>
       </c>
       <c r="K23" t="n">
-        <v>363.7015273031528</v>
+        <v>363.7015273031525</v>
       </c>
       <c r="L23" t="n">
-        <v>713.8179739365964</v>
+        <v>713.8179739365962</v>
       </c>
       <c r="M23" t="n">
         <v>1119.996526506346</v>
       </c>
       <c r="N23" t="n">
-        <v>1518.115475157464</v>
+        <v>1518.115475157463</v>
       </c>
       <c r="O23" t="n">
         <v>1848.86027121381</v>
@@ -6013,28 +6013,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R23" t="n">
-        <v>2199.938067954761</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="S23" t="n">
-        <v>2199.938067954761</v>
+        <v>1931.536251638565</v>
       </c>
       <c r="T23" t="n">
-        <v>1979.401335766984</v>
+        <v>1710.999519450787</v>
       </c>
       <c r="U23" t="n">
-        <v>1725.604789648299</v>
+        <v>1568.812721759987</v>
       </c>
       <c r="V23" t="n">
-        <v>1394.541902304729</v>
+        <v>1568.812721759987</v>
       </c>
       <c r="W23" t="n">
-        <v>1041.773247034615</v>
+        <v>1568.812721759987</v>
       </c>
       <c r="X23" t="n">
-        <v>962.6211938916819</v>
+        <v>1568.812721759987</v>
       </c>
       <c r="Y23" t="n">
-        <v>572.4818619158701</v>
+        <v>1568.812721759987</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>814.5828562753836</v>
+        <v>725.8193305040547</v>
       </c>
       <c r="C24" t="n">
-        <v>814.5828562753836</v>
+        <v>551.3663012229277</v>
       </c>
       <c r="D24" t="n">
-        <v>665.6484466141324</v>
+        <v>402.4318915616765</v>
       </c>
       <c r="E24" t="n">
-        <v>506.4109916086768</v>
+        <v>243.194436556221</v>
       </c>
       <c r="F24" t="n">
-        <v>359.8764336355617</v>
+        <v>96.65987858310595</v>
       </c>
       <c r="G24" t="n">
-        <v>221.7338375251587</v>
+        <v>96.65987858310595</v>
       </c>
       <c r="H24" t="n">
-        <v>114.0457586606907</v>
+        <v>96.65987858310595</v>
       </c>
       <c r="I24" t="n">
         <v>43.99876135909523</v>
@@ -6086,34 +6086,34 @@
         <v>2018.125070188807</v>
       </c>
       <c r="P24" t="n">
-        <v>2199.938067954761</v>
+        <v>2056.950784801274</v>
       </c>
       <c r="Q24" t="n">
         <v>2199.938067954761</v>
       </c>
       <c r="R24" t="n">
-        <v>2199.938067954761</v>
+        <v>2135.290354602514</v>
       </c>
       <c r="S24" t="n">
-        <v>2199.938067954761</v>
+        <v>1972.799111435054</v>
       </c>
       <c r="T24" t="n">
-        <v>2000.122450213159</v>
+        <v>1772.983493693451</v>
       </c>
       <c r="U24" t="n">
-        <v>1887.799457225883</v>
+        <v>1544.798574726352</v>
       </c>
       <c r="V24" t="n">
-        <v>1652.64734899414</v>
+        <v>1309.64646649461</v>
       </c>
       <c r="W24" t="n">
-        <v>1398.409992265938</v>
+        <v>1309.64646649461</v>
       </c>
       <c r="X24" t="n">
-        <v>1190.558492060406</v>
+        <v>1101.794966289077</v>
       </c>
       <c r="Y24" t="n">
-        <v>982.7981932954517</v>
+        <v>894.0346675241228</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.99876135909523</v>
+        <v>503.2968266233231</v>
       </c>
       <c r="C25" t="n">
-        <v>43.99876135909523</v>
+        <v>503.2968266233231</v>
       </c>
       <c r="D25" t="n">
-        <v>43.99876135909523</v>
+        <v>503.2968266233231</v>
       </c>
       <c r="E25" t="n">
-        <v>43.99876135909523</v>
+        <v>355.3837330409299</v>
       </c>
       <c r="F25" t="n">
-        <v>43.99876135909523</v>
+        <v>355.3837330409299</v>
       </c>
       <c r="G25" t="n">
-        <v>43.99876135909523</v>
+        <v>186.189026794163</v>
       </c>
       <c r="H25" t="n">
-        <v>43.99876135909523</v>
+        <v>186.189026794163</v>
       </c>
       <c r="I25" t="n">
         <v>43.99876135909523</v>
@@ -6171,28 +6171,28 @@
         <v>558.30875967521</v>
       </c>
       <c r="R25" t="n">
-        <v>558.30875967521</v>
+        <v>503.2968266233231</v>
       </c>
       <c r="S25" t="n">
-        <v>558.30875967521</v>
+        <v>503.2968266233231</v>
       </c>
       <c r="T25" t="n">
-        <v>558.30875967521</v>
+        <v>503.2968266233231</v>
       </c>
       <c r="U25" t="n">
-        <v>269.1245180942271</v>
+        <v>503.2968266233231</v>
       </c>
       <c r="V25" t="n">
-        <v>269.1245180942271</v>
+        <v>503.2968266233231</v>
       </c>
       <c r="W25" t="n">
-        <v>43.99876135909523</v>
+        <v>503.2968266233231</v>
       </c>
       <c r="X25" t="n">
-        <v>43.99876135909523</v>
+        <v>503.2968266233231</v>
       </c>
       <c r="Y25" t="n">
-        <v>43.99876135909523</v>
+        <v>503.2968266233231</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>545.8608032772772</v>
+        <v>1199.038617353697</v>
       </c>
       <c r="C26" t="n">
-        <v>545.8608032772772</v>
+        <v>1199.038617353697</v>
       </c>
       <c r="D26" t="n">
-        <v>545.8608032772772</v>
+        <v>840.772918746947</v>
       </c>
       <c r="E26" t="n">
-        <v>545.8608032772772</v>
+        <v>454.9846661487028</v>
       </c>
       <c r="F26" t="n">
-        <v>545.8608032772772</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="G26" t="n">
-        <v>545.8608032772772</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H26" t="n">
-        <v>214.2161633091196</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I26" t="n">
         <v>43.99876135909523</v>
       </c>
       <c r="J26" t="n">
-        <v>123.6220514371466</v>
+        <v>123.6220514371465</v>
       </c>
       <c r="K26" t="n">
         <v>363.7015273031528</v>
@@ -6238,7 +6238,7 @@
         <v>1119.996526506346</v>
       </c>
       <c r="N26" t="n">
-        <v>1518.115475157464</v>
+        <v>1518.115475157463</v>
       </c>
       <c r="O26" t="n">
         <v>1848.86027121381</v>
@@ -6259,19 +6259,19 @@
         <v>1710.999519450787</v>
       </c>
       <c r="U26" t="n">
-        <v>1457.202973332103</v>
+        <v>1572.504375614777</v>
       </c>
       <c r="V26" t="n">
-        <v>1126.140085988532</v>
+        <v>1572.504375614777</v>
       </c>
       <c r="W26" t="n">
-        <v>773.371430718418</v>
+        <v>1572.504375614777</v>
       </c>
       <c r="X26" t="n">
-        <v>773.371430718418</v>
+        <v>1199.038617353697</v>
       </c>
       <c r="Y26" t="n">
-        <v>545.8608032772772</v>
+        <v>1199.038617353697</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>989.0358855565106</v>
+        <v>704.4450241481684</v>
       </c>
       <c r="C27" t="n">
-        <v>814.5828562753836</v>
+        <v>529.9919948670414</v>
       </c>
       <c r="D27" t="n">
-        <v>665.6484466141324</v>
+        <v>487.9133704480687</v>
       </c>
       <c r="E27" t="n">
-        <v>506.4109916086768</v>
+        <v>328.6759154426132</v>
       </c>
       <c r="F27" t="n">
-        <v>359.8764336355617</v>
+        <v>182.1413574694982</v>
       </c>
       <c r="G27" t="n">
-        <v>221.7338375251587</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H27" t="n">
-        <v>114.0457586606907</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I27" t="n">
         <v>43.99876135909523</v>
       </c>
       <c r="J27" t="n">
-        <v>97.72846777243467</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="K27" t="n">
-        <v>316.1819370893671</v>
+        <v>262.4522306760276</v>
       </c>
       <c r="L27" t="n">
-        <v>671.3239817053463</v>
+        <v>617.5942752920068</v>
       </c>
       <c r="M27" t="n">
-        <v>1137.737218444433</v>
+        <v>1026.816027856822</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.202039091559</v>
+        <v>1521.280848503948</v>
       </c>
       <c r="O27" t="n">
-        <v>1764.216596447708</v>
+        <v>1907.203879601196</v>
       </c>
       <c r="P27" t="n">
-        <v>2056.950784801274</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="Q27" t="n">
         <v>2199.938067954761</v>
       </c>
       <c r="R27" t="n">
-        <v>2135.290354602514</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="S27" t="n">
-        <v>2135.290354602514</v>
+        <v>2037.446824787301</v>
       </c>
       <c r="T27" t="n">
-        <v>2135.290354602514</v>
+        <v>1837.631207045698</v>
       </c>
       <c r="U27" t="n">
-        <v>1907.105435635415</v>
+        <v>1609.446288078599</v>
       </c>
       <c r="V27" t="n">
-        <v>1671.953327403672</v>
+        <v>1374.294179846857</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.863021547065</v>
+        <v>1120.056823118655</v>
       </c>
       <c r="X27" t="n">
-        <v>1365.011521341532</v>
+        <v>912.2053229131222</v>
       </c>
       <c r="Y27" t="n">
-        <v>1157.251222576579</v>
+        <v>704.4450241481684</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.99876135909523</v>
+        <v>512.5711220856463</v>
       </c>
       <c r="C28" t="n">
-        <v>43.99876135909523</v>
+        <v>512.5711220856463</v>
       </c>
       <c r="D28" t="n">
-        <v>43.99876135909523</v>
+        <v>362.4544826733105</v>
       </c>
       <c r="E28" t="n">
-        <v>43.99876135909523</v>
+        <v>214.5413890909174</v>
       </c>
       <c r="F28" t="n">
-        <v>43.99876135909523</v>
+        <v>67.65144159300704</v>
       </c>
       <c r="G28" t="n">
-        <v>43.99876135909523</v>
+        <v>67.65144159300704</v>
       </c>
       <c r="H28" t="n">
         <v>43.99876135909523</v>
@@ -6405,31 +6405,31 @@
         <v>558.30875967521</v>
       </c>
       <c r="Q28" t="n">
-        <v>558.30875967521</v>
+        <v>512.5711220856463</v>
       </c>
       <c r="R28" t="n">
-        <v>558.30875967521</v>
+        <v>512.5711220856463</v>
       </c>
       <c r="S28" t="n">
-        <v>558.30875967521</v>
+        <v>512.5711220856463</v>
       </c>
       <c r="T28" t="n">
-        <v>558.30875967521</v>
+        <v>512.5711220856463</v>
       </c>
       <c r="U28" t="n">
-        <v>558.30875967521</v>
+        <v>512.5711220856463</v>
       </c>
       <c r="V28" t="n">
-        <v>333.4159313960558</v>
+        <v>512.5711220856463</v>
       </c>
       <c r="W28" t="n">
-        <v>43.99876135909523</v>
+        <v>512.5711220856463</v>
       </c>
       <c r="X28" t="n">
-        <v>43.99876135909523</v>
+        <v>512.5711220856463</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.99876135909523</v>
+        <v>512.5711220856463</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>696.9644823836338</v>
+        <v>1406.722623704101</v>
       </c>
       <c r="C29" t="n">
-        <v>696.9644823836338</v>
+        <v>1037.760106763689</v>
       </c>
       <c r="D29" t="n">
-        <v>696.9644823836338</v>
+        <v>1037.760106763689</v>
       </c>
       <c r="E29" t="n">
-        <v>696.9644823836338</v>
+        <v>786.6293061168604</v>
       </c>
       <c r="F29" t="n">
-        <v>696.9644823836338</v>
+        <v>375.6434013272529</v>
       </c>
       <c r="G29" t="n">
-        <v>278.5661648221199</v>
+        <v>375.6434013272529</v>
       </c>
       <c r="H29" t="n">
-        <v>214.2161633091196</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I29" t="n">
         <v>43.99876135909523</v>
       </c>
       <c r="J29" t="n">
-        <v>123.6220514371464</v>
+        <v>123.6220514371466</v>
       </c>
       <c r="K29" t="n">
-        <v>363.7015273031525</v>
+        <v>363.7015273031528</v>
       </c>
       <c r="L29" t="n">
-        <v>713.8179739365962</v>
+        <v>713.8179739365964</v>
       </c>
       <c r="M29" t="n">
         <v>1119.996526506346</v>
       </c>
       <c r="N29" t="n">
-        <v>1518.115475157463</v>
+        <v>1518.115475157464</v>
       </c>
       <c r="O29" t="n">
         <v>1848.86027121381</v>
@@ -6490,25 +6490,25 @@
         <v>2199.938067954761</v>
       </c>
       <c r="S29" t="n">
-        <v>2199.938067954761</v>
+        <v>2013.859195956</v>
       </c>
       <c r="T29" t="n">
-        <v>2199.938067954761</v>
+        <v>1793.322463768223</v>
       </c>
       <c r="U29" t="n">
-        <v>2199.938067954761</v>
+        <v>1793.322463768223</v>
       </c>
       <c r="V29" t="n">
-        <v>2199.938067954761</v>
+        <v>1793.322463768223</v>
       </c>
       <c r="W29" t="n">
-        <v>1847.169412684647</v>
+        <v>1793.322463768223</v>
       </c>
       <c r="X29" t="n">
-        <v>1473.703654423567</v>
+        <v>1793.322463768223</v>
       </c>
       <c r="Y29" t="n">
-        <v>1083.564322447756</v>
+        <v>1793.322463768223</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>736.0453048697027</v>
+        <v>989.0358855565106</v>
       </c>
       <c r="C30" t="n">
-        <v>736.0453048697027</v>
+        <v>814.5828562753836</v>
       </c>
       <c r="D30" t="n">
-        <v>587.1108952084514</v>
+        <v>665.6484466141324</v>
       </c>
       <c r="E30" t="n">
-        <v>427.8734402029959</v>
+        <v>506.4109916086768</v>
       </c>
       <c r="F30" t="n">
-        <v>289.8294363339663</v>
+        <v>359.8764336355617</v>
       </c>
       <c r="G30" t="n">
-        <v>151.6868402235633</v>
+        <v>221.7338375251587</v>
       </c>
       <c r="H30" t="n">
-        <v>43.99876135909523</v>
+        <v>114.0457586606907</v>
       </c>
       <c r="I30" t="n">
         <v>43.99876135909523</v>
@@ -6545,49 +6545,49 @@
         <v>97.72846777243467</v>
       </c>
       <c r="K30" t="n">
-        <v>316.1819370893671</v>
+        <v>205.2607465017562</v>
       </c>
       <c r="L30" t="n">
-        <v>417.4155079642478</v>
+        <v>560.4027911177354</v>
       </c>
       <c r="M30" t="n">
-        <v>883.8287447033342</v>
+        <v>1026.816027856822</v>
       </c>
       <c r="N30" t="n">
-        <v>1378.293565350461</v>
+        <v>1521.280848503948</v>
       </c>
       <c r="O30" t="n">
-        <v>1764.216596447708</v>
+        <v>1907.203879601196</v>
       </c>
       <c r="P30" t="n">
-        <v>2056.950784801274</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="Q30" t="n">
         <v>2199.938067954761</v>
       </c>
       <c r="R30" t="n">
-        <v>2199.938067954761</v>
+        <v>2135.290354602514</v>
       </c>
       <c r="S30" t="n">
-        <v>2037.446824787301</v>
+        <v>1972.799111435054</v>
       </c>
       <c r="T30" t="n">
-        <v>2037.446824787301</v>
+        <v>1972.799111435054</v>
       </c>
       <c r="U30" t="n">
-        <v>1809.261905820202</v>
+        <v>1744.614192467955</v>
       </c>
       <c r="V30" t="n">
-        <v>1574.109797588459</v>
+        <v>1509.462084236212</v>
       </c>
       <c r="W30" t="n">
-        <v>1319.872440860257</v>
+        <v>1255.22472750801</v>
       </c>
       <c r="X30" t="n">
-        <v>1112.020940654725</v>
+        <v>1196.796184321465</v>
       </c>
       <c r="Y30" t="n">
-        <v>904.2606418897708</v>
+        <v>989.0358855565106</v>
       </c>
     </row>
     <row r="31">
@@ -6651,13 +6651,13 @@
         <v>558.30875967521</v>
       </c>
       <c r="T31" t="n">
-        <v>330.1677922256598</v>
+        <v>558.30875967521</v>
       </c>
       <c r="U31" t="n">
-        <v>43.99876135909523</v>
+        <v>558.30875967521</v>
       </c>
       <c r="V31" t="n">
-        <v>43.99876135909523</v>
+        <v>333.4159313960558</v>
       </c>
       <c r="W31" t="n">
         <v>43.99876135909523</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1423.198895914828</v>
+        <v>958.2701145141143</v>
       </c>
       <c r="C32" t="n">
-        <v>1423.198895914828</v>
+        <v>958.2701145141143</v>
       </c>
       <c r="D32" t="n">
-        <v>1423.198895914828</v>
+        <v>600.0044159073639</v>
       </c>
       <c r="E32" t="n">
-        <v>1043.600385660241</v>
+        <v>214.2161633091196</v>
       </c>
       <c r="F32" t="n">
-        <v>632.6144808706335</v>
+        <v>214.2161633091196</v>
       </c>
       <c r="G32" t="n">
         <v>214.2161633091196</v>
@@ -6700,16 +6700,16 @@
         <v>43.99876135909523</v>
       </c>
       <c r="J32" t="n">
-        <v>123.6220514371466</v>
+        <v>123.6220514371461</v>
       </c>
       <c r="K32" t="n">
-        <v>363.7015273031528</v>
+        <v>363.7015273031523</v>
       </c>
       <c r="L32" t="n">
-        <v>713.8179739365964</v>
+        <v>713.817973936596</v>
       </c>
       <c r="M32" t="n">
-        <v>1119.996526506346</v>
+        <v>1119.996526506345</v>
       </c>
       <c r="N32" t="n">
         <v>1518.115475157463</v>
@@ -6733,19 +6733,19 @@
         <v>2199.938067954761</v>
       </c>
       <c r="U32" t="n">
-        <v>2199.938067954761</v>
+        <v>2015.567415388879</v>
       </c>
       <c r="V32" t="n">
-        <v>2199.938067954761</v>
+        <v>1684.504528045308</v>
       </c>
       <c r="W32" t="n">
-        <v>2199.938067954761</v>
+        <v>1331.735872775194</v>
       </c>
       <c r="X32" t="n">
-        <v>2199.938067954761</v>
+        <v>958.2701145141143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1809.798735978949</v>
+        <v>958.2701145141143</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>833.888834684916</v>
+        <v>526.623655306929</v>
       </c>
       <c r="C33" t="n">
-        <v>744.535858973788</v>
+        <v>352.170626025802</v>
       </c>
       <c r="D33" t="n">
-        <v>595.6014493125367</v>
+        <v>203.2362163645507</v>
       </c>
       <c r="E33" t="n">
-        <v>436.3639943070813</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="F33" t="n">
-        <v>289.8294363339663</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="G33" t="n">
-        <v>151.6868402235633</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H33" t="n">
         <v>43.99876135909523</v>
@@ -6779,22 +6779,22 @@
         <v>43.99876135909523</v>
       </c>
       <c r="J33" t="n">
-        <v>97.72846777243467</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="K33" t="n">
-        <v>205.2607465017562</v>
+        <v>262.4522306760276</v>
       </c>
       <c r="L33" t="n">
-        <v>560.4027911177354</v>
+        <v>617.5942752920068</v>
       </c>
       <c r="M33" t="n">
-        <v>1026.816027856822</v>
+        <v>1084.007512031093</v>
       </c>
       <c r="N33" t="n">
-        <v>1521.280848503948</v>
+        <v>1578.47233267822</v>
       </c>
       <c r="O33" t="n">
-        <v>1907.203879601196</v>
+        <v>1964.395363775467</v>
       </c>
       <c r="P33" t="n">
         <v>2199.938067954761</v>
@@ -6806,25 +6806,25 @@
         <v>2135.290354602514</v>
       </c>
       <c r="S33" t="n">
-        <v>2135.290354602514</v>
+        <v>2027.840792966129</v>
       </c>
       <c r="T33" t="n">
-        <v>2135.290354602514</v>
+        <v>1828.025175224527</v>
       </c>
       <c r="U33" t="n">
-        <v>1907.105435635415</v>
+        <v>1599.840256257428</v>
       </c>
       <c r="V33" t="n">
-        <v>1671.953327403672</v>
+        <v>1364.688148025685</v>
       </c>
       <c r="W33" t="n">
-        <v>1417.715970675471</v>
+        <v>1110.450791297484</v>
       </c>
       <c r="X33" t="n">
-        <v>1209.864470469938</v>
+        <v>902.5992910919508</v>
       </c>
       <c r="Y33" t="n">
-        <v>1002.104171704984</v>
+        <v>694.838992326997</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.99876135909523</v>
+        <v>213.1934676058622</v>
       </c>
       <c r="C34" t="n">
-        <v>43.99876135909523</v>
+        <v>213.1934676058622</v>
       </c>
       <c r="D34" t="n">
-        <v>43.99876135909523</v>
+        <v>213.1934676058622</v>
       </c>
       <c r="E34" t="n">
-        <v>43.99876135909523</v>
+        <v>213.1934676058622</v>
       </c>
       <c r="F34" t="n">
-        <v>43.99876135909523</v>
+        <v>213.1934676058622</v>
       </c>
       <c r="G34" t="n">
         <v>43.99876135909523</v>
@@ -6885,25 +6885,25 @@
         <v>558.30875967521</v>
       </c>
       <c r="S34" t="n">
-        <v>558.30875967521</v>
+        <v>441.3344350554124</v>
       </c>
       <c r="T34" t="n">
-        <v>558.30875967521</v>
+        <v>213.1934676058622</v>
       </c>
       <c r="U34" t="n">
-        <v>271.9883122571126</v>
+        <v>213.1934676058622</v>
       </c>
       <c r="V34" t="n">
-        <v>271.9883122571126</v>
+        <v>213.1934676058622</v>
       </c>
       <c r="W34" t="n">
-        <v>271.9883122571126</v>
+        <v>213.1934676058622</v>
       </c>
       <c r="X34" t="n">
-        <v>43.99876135909523</v>
+        <v>213.1934676058622</v>
       </c>
       <c r="Y34" t="n">
-        <v>43.99876135909523</v>
+        <v>213.1934676058622</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1364.748903213784</v>
+        <v>862.8868612956021</v>
       </c>
       <c r="C35" t="n">
-        <v>1364.748903213784</v>
+        <v>862.8868612956021</v>
       </c>
       <c r="D35" t="n">
-        <v>1364.748903213784</v>
+        <v>862.8868612956021</v>
       </c>
       <c r="E35" t="n">
-        <v>1364.748903213784</v>
+        <v>862.8868612956021</v>
       </c>
       <c r="F35" t="n">
-        <v>953.7629984241767</v>
+        <v>451.9009565059945</v>
       </c>
       <c r="G35" t="n">
-        <v>535.3646808626627</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H35" t="n">
-        <v>203.720040894505</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="I35" t="n">
         <v>33.50263894448064</v>
@@ -6940,19 +6940,19 @@
         <v>113.125929022532</v>
       </c>
       <c r="K35" t="n">
-        <v>353.2054048885382</v>
+        <v>113.125929022532</v>
       </c>
       <c r="L35" t="n">
-        <v>703.3218515219819</v>
+        <v>189.0118532058668</v>
       </c>
       <c r="M35" t="n">
-        <v>1109.500404091731</v>
+        <v>595.1904057756162</v>
       </c>
       <c r="N35" t="n">
-        <v>1237.918002901993</v>
+        <v>993.3093544267339</v>
       </c>
       <c r="O35" t="n">
-        <v>1568.66279895834</v>
+        <v>1324.054150483081</v>
       </c>
       <c r="P35" t="n">
         <v>1568.66279895834</v>
@@ -6961,28 +6961,28 @@
         <v>1675.131947224032</v>
       </c>
       <c r="R35" t="n">
-        <v>1675.131947224032</v>
+        <v>1659.641797457952</v>
       </c>
       <c r="S35" t="n">
-        <v>1489.053075225271</v>
+        <v>1473.562925459191</v>
       </c>
       <c r="T35" t="n">
-        <v>1489.053075225271</v>
+        <v>1253.026193271414</v>
       </c>
       <c r="U35" t="n">
-        <v>1489.053075225271</v>
+        <v>1253.026193271414</v>
       </c>
       <c r="V35" t="n">
-        <v>1364.748903213784</v>
+        <v>1253.026193271414</v>
       </c>
       <c r="W35" t="n">
-        <v>1364.748903213784</v>
+        <v>1253.026193271414</v>
       </c>
       <c r="X35" t="n">
-        <v>1364.748903213784</v>
+        <v>1253.026193271414</v>
       </c>
       <c r="Y35" t="n">
-        <v>1364.748903213784</v>
+        <v>862.8868612956021</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>287.7252757820637</v>
+        <v>485.2427319976061</v>
       </c>
       <c r="C36" t="n">
-        <v>287.7252757820637</v>
+        <v>310.7897027164792</v>
       </c>
       <c r="D36" t="n">
-        <v>287.7252757820637</v>
+        <v>310.7897027164792</v>
       </c>
       <c r="E36" t="n">
-        <v>287.7252757820637</v>
+        <v>310.7897027164792</v>
       </c>
       <c r="F36" t="n">
-        <v>141.1907178089486</v>
+        <v>310.7897027164792</v>
       </c>
       <c r="G36" t="n">
-        <v>141.1907178089486</v>
+        <v>211.2377151105441</v>
       </c>
       <c r="H36" t="n">
-        <v>33.50263894448064</v>
+        <v>103.5496362460761</v>
       </c>
       <c r="I36" t="n">
         <v>33.50263894448064</v>
       </c>
       <c r="J36" t="n">
-        <v>33.50263894448064</v>
+        <v>87.23234535782009</v>
       </c>
       <c r="K36" t="n">
-        <v>33.50263894448064</v>
+        <v>305.6858146747525</v>
       </c>
       <c r="L36" t="n">
-        <v>388.6446835604599</v>
+        <v>305.6858146747525</v>
       </c>
       <c r="M36" t="n">
-        <v>803.2398404984078</v>
+        <v>720.2809716127003</v>
       </c>
       <c r="N36" t="n">
-        <v>1217.834997436356</v>
+        <v>996.474727773219</v>
       </c>
       <c r="O36" t="n">
-        <v>1239.410475716979</v>
+        <v>1382.397758870467</v>
       </c>
       <c r="P36" t="n">
-        <v>1532.144664070544</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="Q36" t="n">
         <v>1675.131947224032</v>
       </c>
       <c r="R36" t="n">
-        <v>1675.131947224032</v>
+        <v>1610.484233871785</v>
       </c>
       <c r="S36" t="n">
-        <v>1675.131947224032</v>
+        <v>1610.484233871785</v>
       </c>
       <c r="T36" t="n">
-        <v>1475.316329482429</v>
+        <v>1410.668616130182</v>
       </c>
       <c r="U36" t="n">
-        <v>1247.13141051533</v>
+        <v>1182.483697163083</v>
       </c>
       <c r="V36" t="n">
-        <v>1011.979302283588</v>
+        <v>947.3315889313405</v>
       </c>
       <c r="W36" t="n">
-        <v>757.7419455553861</v>
+        <v>693.094232203139</v>
       </c>
       <c r="X36" t="n">
-        <v>549.8904453498533</v>
+        <v>485.2427319976061</v>
       </c>
       <c r="Y36" t="n">
-        <v>342.1301465848994</v>
+        <v>485.2427319976061</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>138.1746215323384</v>
+        <v>328.3056800247841</v>
       </c>
       <c r="C37" t="n">
-        <v>138.1746215323384</v>
+        <v>328.3056800247841</v>
       </c>
       <c r="D37" t="n">
-        <v>33.50263894448064</v>
+        <v>328.3056800247841</v>
       </c>
       <c r="E37" t="n">
-        <v>33.50263894448064</v>
+        <v>180.392586442391</v>
       </c>
       <c r="F37" t="n">
         <v>33.50263894448064</v>
@@ -7137,10 +7137,10 @@
         <v>547.8126372605955</v>
       </c>
       <c r="X37" t="n">
-        <v>319.8230863625781</v>
+        <v>328.3056800247841</v>
       </c>
       <c r="Y37" t="n">
-        <v>319.8230863625781</v>
+        <v>328.3056800247841</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1171.71675928125</v>
+        <v>1221.152559902353</v>
       </c>
       <c r="C38" t="n">
-        <v>802.7542423408387</v>
+        <v>1221.152559902353</v>
       </c>
       <c r="D38" t="n">
-        <v>444.4885437340882</v>
+        <v>862.8868612956021</v>
       </c>
       <c r="E38" t="n">
-        <v>444.4885437340882</v>
+        <v>862.8868612956021</v>
       </c>
       <c r="F38" t="n">
-        <v>33.50263894448064</v>
+        <v>451.9009565059946</v>
       </c>
       <c r="G38" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="H38" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="I38" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="J38" t="n">
-        <v>111.4636315418585</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="K38" t="n">
-        <v>351.5431074078647</v>
+        <v>189.9732033133749</v>
       </c>
       <c r="L38" t="n">
-        <v>701.6595540413084</v>
+        <v>540.0896499468186</v>
       </c>
       <c r="M38" t="n">
-        <v>701.6595540413084</v>
+        <v>946.268202516568</v>
       </c>
       <c r="N38" t="n">
-        <v>1099.778502692426</v>
+        <v>1344.387151167686</v>
       </c>
       <c r="O38" t="n">
-        <v>1430.523298748773</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="P38" t="n">
-        <v>1675.131947224032</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="Q38" t="n">
-        <v>1675.131947224032</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="R38" t="n">
-        <v>1675.131947224032</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="S38" t="n">
-        <v>1675.131947224032</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="T38" t="n">
-        <v>1675.131947224032</v>
+        <v>1372.27227071882</v>
       </c>
       <c r="U38" t="n">
-        <v>1524.485414551365</v>
+        <v>1221.152559902353</v>
       </c>
       <c r="V38" t="n">
-        <v>1524.485414551365</v>
+        <v>1221.152559902353</v>
       </c>
       <c r="W38" t="n">
-        <v>1171.71675928125</v>
+        <v>1221.152559902353</v>
       </c>
       <c r="X38" t="n">
-        <v>1171.71675928125</v>
+        <v>1221.152559902353</v>
       </c>
       <c r="Y38" t="n">
-        <v>1171.71675928125</v>
+        <v>1221.152559902353</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>701.6973422982044</v>
+        <v>541.9457643265025</v>
       </c>
       <c r="C39" t="n">
-        <v>527.2443130170774</v>
+        <v>541.9457643265025</v>
       </c>
       <c r="D39" t="n">
-        <v>378.3099033558261</v>
+        <v>393.0113546652512</v>
       </c>
       <c r="E39" t="n">
-        <v>219.0724483503706</v>
+        <v>393.0113546652512</v>
       </c>
       <c r="F39" t="n">
-        <v>171.6452350548836</v>
+        <v>246.4767966921362</v>
       </c>
       <c r="G39" t="n">
-        <v>33.50263894448064</v>
+        <v>108.3342005817332</v>
       </c>
       <c r="H39" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="I39" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="J39" t="n">
         <v>87.23234535782009</v>
@@ -7259,46 +7259,46 @@
         <v>305.6858146747525</v>
       </c>
       <c r="L39" t="n">
-        <v>418.9764176347752</v>
+        <v>660.8278592907318</v>
       </c>
       <c r="M39" t="n">
-        <v>833.5715745727231</v>
+        <v>666.1930829173184</v>
       </c>
       <c r="N39" t="n">
-        <v>853.4874446197316</v>
+        <v>853.4874446197323</v>
       </c>
       <c r="O39" t="n">
-        <v>1239.410475716979</v>
+        <v>1239.41047571698</v>
       </c>
       <c r="P39" t="n">
-        <v>1532.144664070544</v>
+        <v>1532.144664070545</v>
       </c>
       <c r="Q39" t="n">
-        <v>1675.131947224032</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="R39" t="n">
-        <v>1675.131947224032</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="S39" t="n">
-        <v>1512.640704056571</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="T39" t="n">
-        <v>1312.825086314969</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="U39" t="n">
-        <v>1312.825086314969</v>
+        <v>1446.947028256933</v>
       </c>
       <c r="V39" t="n">
-        <v>1077.672978083226</v>
+        <v>1211.794920025191</v>
       </c>
       <c r="W39" t="n">
-        <v>1077.672978083226</v>
+        <v>957.5575632969892</v>
       </c>
       <c r="X39" t="n">
-        <v>1077.672978083226</v>
+        <v>749.7060630914564</v>
       </c>
       <c r="Y39" t="n">
-        <v>869.9126793182725</v>
+        <v>541.9457643265025</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>319.8230863625781</v>
+        <v>175.6929043795484</v>
       </c>
       <c r="C40" t="n">
-        <v>150.8869034346712</v>
+        <v>175.6929043795484</v>
       </c>
       <c r="D40" t="n">
-        <v>150.8869034346712</v>
+        <v>175.6929043795484</v>
       </c>
       <c r="E40" t="n">
-        <v>33.50263894448064</v>
+        <v>175.6929043795484</v>
       </c>
       <c r="F40" t="n">
-        <v>33.50263894448064</v>
+        <v>175.6929043795484</v>
       </c>
       <c r="G40" t="n">
-        <v>33.50263894448064</v>
+        <v>175.6929043795484</v>
       </c>
       <c r="H40" t="n">
-        <v>33.50263894448064</v>
+        <v>175.6929043795484</v>
       </c>
       <c r="I40" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="J40" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="K40" t="n">
-        <v>67.61092646867903</v>
+        <v>67.61092646867905</v>
       </c>
       <c r="L40" t="n">
         <v>166.784226030228</v>
@@ -7344,10 +7344,10 @@
         <v>281.7376883897361</v>
       </c>
       <c r="N40" t="n">
-        <v>399.3924307698099</v>
+        <v>399.39243076981</v>
       </c>
       <c r="O40" t="n">
-        <v>492.0493328151924</v>
+        <v>492.0493328151925</v>
       </c>
       <c r="P40" t="n">
         <v>547.8126372605955</v>
@@ -7359,25 +7359,25 @@
         <v>547.8126372605955</v>
       </c>
       <c r="S40" t="n">
-        <v>547.8126372605955</v>
+        <v>403.8338718290986</v>
       </c>
       <c r="T40" t="n">
-        <v>547.8126372605955</v>
+        <v>175.6929043795484</v>
       </c>
       <c r="U40" t="n">
-        <v>547.8126372605955</v>
+        <v>175.6929043795484</v>
       </c>
       <c r="V40" t="n">
-        <v>547.8126372605955</v>
+        <v>175.6929043795484</v>
       </c>
       <c r="W40" t="n">
-        <v>547.8126372605955</v>
+        <v>175.6929043795484</v>
       </c>
       <c r="X40" t="n">
-        <v>319.8230863625781</v>
+        <v>175.6929043795484</v>
       </c>
       <c r="Y40" t="n">
-        <v>319.8230863625781</v>
+        <v>175.6929043795484</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1101.82655976614</v>
+        <v>898.392775184099</v>
       </c>
       <c r="C41" t="n">
-        <v>1101.82655976614</v>
+        <v>898.392775184099</v>
       </c>
       <c r="D41" t="n">
-        <v>953.7629984241767</v>
+        <v>540.1270765773486</v>
       </c>
       <c r="E41" t="n">
-        <v>953.7629984241767</v>
+        <v>154.3388239791043</v>
       </c>
       <c r="F41" t="n">
-        <v>953.7629984241767</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="G41" t="n">
-        <v>535.3646808626627</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="H41" t="n">
-        <v>203.720040894505</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="I41" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="J41" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="K41" t="n">
-        <v>189.9732033133744</v>
+        <v>273.5821148104869</v>
       </c>
       <c r="L41" t="n">
-        <v>540.0896499468181</v>
+        <v>623.6985614439305</v>
       </c>
       <c r="M41" t="n">
-        <v>946.2682025165675</v>
+        <v>1029.87711401368</v>
       </c>
       <c r="N41" t="n">
-        <v>1344.387151167685</v>
+        <v>1427.996062664798</v>
       </c>
       <c r="O41" t="n">
-        <v>1675.131947224032</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="P41" t="n">
-        <v>1675.131947224032</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="Q41" t="n">
-        <v>1675.131947224032</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="R41" t="n">
-        <v>1675.131947224032</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="S41" t="n">
-        <v>1675.131947224032</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="T41" t="n">
-        <v>1454.595215036255</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="U41" t="n">
-        <v>1454.595215036255</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="V41" t="n">
-        <v>1454.595215036255</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="W41" t="n">
-        <v>1101.82655976614</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="X41" t="n">
-        <v>1101.82655976614</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="Y41" t="n">
-        <v>1101.82655976614</v>
+        <v>1284.992615248221</v>
       </c>
     </row>
     <row r="42">
@@ -7466,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>373.7304273064338</v>
+        <v>182.4370486057319</v>
       </c>
       <c r="C42" t="n">
-        <v>373.7304273064338</v>
+        <v>182.4370486057319</v>
       </c>
       <c r="D42" t="n">
-        <v>224.7960176451825</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="E42" t="n">
-        <v>180.0371969175957</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="F42" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="G42" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="H42" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="I42" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="J42" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="K42" t="n">
         <v>251.9561082614131</v>
@@ -7499,43 +7499,43 @@
         <v>607.0981528773923</v>
       </c>
       <c r="M42" t="n">
-        <v>833.5715745727231</v>
+        <v>731.6264760353495</v>
       </c>
       <c r="N42" t="n">
-        <v>853.4874446197316</v>
+        <v>1146.221632973298</v>
       </c>
       <c r="O42" t="n">
-        <v>1239.410475716979</v>
+        <v>1532.144664070545</v>
       </c>
       <c r="P42" t="n">
-        <v>1532.144664070544</v>
+        <v>1532.144664070545</v>
       </c>
       <c r="Q42" t="n">
-        <v>1675.131947224032</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="R42" t="n">
-        <v>1675.131947224032</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.131947224032</v>
+        <v>1515.438849244865</v>
       </c>
       <c r="T42" t="n">
-        <v>1675.131947224032</v>
+        <v>1315.623231503262</v>
       </c>
       <c r="U42" t="n">
-        <v>1446.947028256933</v>
+        <v>1087.438312536163</v>
       </c>
       <c r="V42" t="n">
-        <v>1211.79492002519</v>
+        <v>852.2862043044204</v>
       </c>
       <c r="W42" t="n">
-        <v>957.5575632969885</v>
+        <v>598.0488475762187</v>
       </c>
       <c r="X42" t="n">
-        <v>749.7060630914557</v>
+        <v>390.1973473706859</v>
       </c>
       <c r="Y42" t="n">
-        <v>541.9457643265018</v>
+        <v>182.4370486057319</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="C43" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="D43" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="E43" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="F43" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="G43" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="H43" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="I43" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="J43" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="K43" t="n">
-        <v>67.61092646867903</v>
+        <v>67.61092646867905</v>
       </c>
       <c r="L43" t="n">
         <v>166.784226030228</v>
@@ -7581,40 +7581,40 @@
         <v>281.7376883897361</v>
       </c>
       <c r="N43" t="n">
-        <v>399.3924307698099</v>
+        <v>399.39243076981</v>
       </c>
       <c r="O43" t="n">
-        <v>492.0493328151924</v>
+        <v>492.0493328151925</v>
       </c>
       <c r="P43" t="n">
         <v>547.8126372605955</v>
       </c>
       <c r="Q43" t="n">
-        <v>547.8126372605955</v>
+        <v>502.0749996710317</v>
       </c>
       <c r="R43" t="n">
-        <v>390.9022968556744</v>
+        <v>345.1646592661107</v>
       </c>
       <c r="S43" t="n">
-        <v>390.9022968556744</v>
+        <v>127.4795563257687</v>
       </c>
       <c r="T43" t="n">
-        <v>390.9022968556744</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="U43" t="n">
-        <v>390.9022968556744</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="V43" t="n">
-        <v>254.2952180880108</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="W43" t="n">
-        <v>254.2952180880108</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="X43" t="n">
-        <v>254.2952180880108</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="Y43" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>545.6241199139843</v>
+        <v>777.5565901494754</v>
       </c>
       <c r="C44" t="n">
-        <v>545.6241199139843</v>
+        <v>777.5565901494754</v>
       </c>
       <c r="D44" t="n">
-        <v>545.6241199139843</v>
+        <v>419.2908915427249</v>
       </c>
       <c r="E44" t="n">
-        <v>545.6241199139843</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="F44" t="n">
-        <v>134.6382151243767</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="G44" t="n">
-        <v>134.6382151243767</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="H44" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="I44" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="J44" t="n">
-        <v>33.50263894448064</v>
+        <v>113.125929022532</v>
       </c>
       <c r="K44" t="n">
-        <v>273.5821148104869</v>
+        <v>353.2054048885382</v>
       </c>
       <c r="L44" t="n">
-        <v>623.6985614439305</v>
+        <v>703.3218515219819</v>
       </c>
       <c r="M44" t="n">
-        <v>1029.87711401368</v>
+        <v>1109.500404091731</v>
       </c>
       <c r="N44" t="n">
-        <v>1029.87711401368</v>
+        <v>1507.619352742849</v>
       </c>
       <c r="O44" t="n">
-        <v>1360.621910070027</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="P44" t="n">
-        <v>1605.230558545286</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="Q44" t="n">
-        <v>1675.131947224032</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="R44" t="n">
-        <v>1675.131947224032</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="S44" t="n">
-        <v>1675.131947224032</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="T44" t="n">
-        <v>1675.131947224032</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="U44" t="n">
-        <v>1675.131947224032</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="V44" t="n">
-        <v>1675.131947224032</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="W44" t="n">
-        <v>1322.363291953918</v>
+        <v>1541.161680386367</v>
       </c>
       <c r="X44" t="n">
-        <v>1322.363291953918</v>
+        <v>1167.695922125287</v>
       </c>
       <c r="Y44" t="n">
-        <v>932.223959978106</v>
+        <v>777.5565901494754</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>683.0707955075296</v>
+        <v>265.6609231255732</v>
       </c>
       <c r="C45" t="n">
-        <v>508.6177662264026</v>
+        <v>192.7400939499362</v>
       </c>
       <c r="D45" t="n">
-        <v>508.6177662264026</v>
+        <v>192.7400939499362</v>
       </c>
       <c r="E45" t="n">
-        <v>349.3803112209471</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="F45" t="n">
-        <v>349.3803112209471</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="G45" t="n">
-        <v>211.2377151105441</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="H45" t="n">
-        <v>103.5496362460761</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="I45" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="J45" t="n">
-        <v>87.23234535782009</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="K45" t="n">
-        <v>305.6858146747525</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="L45" t="n">
-        <v>418.9764176347752</v>
+        <v>388.64468356046</v>
       </c>
       <c r="M45" t="n">
-        <v>833.5715745727231</v>
+        <v>581.8795708352716</v>
       </c>
       <c r="N45" t="n">
-        <v>853.4874446197316</v>
+        <v>996.4747277732197</v>
       </c>
       <c r="O45" t="n">
-        <v>1239.410475716979</v>
+        <v>1382.397758870467</v>
       </c>
       <c r="P45" t="n">
-        <v>1532.144664070544</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="Q45" t="n">
-        <v>1675.131947224032</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="R45" t="n">
-        <v>1675.131947224032</v>
+        <v>1675.131947224033</v>
       </c>
       <c r="S45" t="n">
-        <v>1588.072059437961</v>
+        <v>1512.640704056572</v>
       </c>
       <c r="T45" t="n">
-        <v>1588.072059437961</v>
+        <v>1312.82508631497</v>
       </c>
       <c r="U45" t="n">
-        <v>1588.072059437961</v>
+        <v>1084.640167347871</v>
       </c>
       <c r="V45" t="n">
-        <v>1352.919951206218</v>
+        <v>849.4880591161279</v>
       </c>
       <c r="W45" t="n">
-        <v>1098.682594478016</v>
+        <v>849.4880591161279</v>
       </c>
       <c r="X45" t="n">
-        <v>890.8310942724836</v>
+        <v>641.6365589105951</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.0707955075296</v>
+        <v>433.8762601456412</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="C46" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="D46" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="E46" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="F46" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="G46" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="H46" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="I46" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="J46" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
       <c r="K46" t="n">
-        <v>67.61092646867903</v>
+        <v>67.61092646867905</v>
       </c>
       <c r="L46" t="n">
         <v>166.784226030228</v>
@@ -7818,10 +7818,10 @@
         <v>281.7376883897361</v>
       </c>
       <c r="N46" t="n">
-        <v>399.3924307698099</v>
+        <v>399.39243076981</v>
       </c>
       <c r="O46" t="n">
-        <v>492.0493328151924</v>
+        <v>492.0493328151925</v>
       </c>
       <c r="P46" t="n">
         <v>547.8126372605955</v>
@@ -7836,22 +7836,22 @@
         <v>390.9022968556744</v>
       </c>
       <c r="T46" t="n">
-        <v>162.7613294061242</v>
+        <v>390.9022968556744</v>
       </c>
       <c r="U46" t="n">
-        <v>162.7613294061242</v>
+        <v>390.9022968556744</v>
       </c>
       <c r="V46" t="n">
-        <v>33.50263894448064</v>
+        <v>390.9022968556744</v>
       </c>
       <c r="W46" t="n">
-        <v>33.50263894448064</v>
+        <v>390.9022968556744</v>
       </c>
       <c r="X46" t="n">
-        <v>33.50263894448064</v>
+        <v>162.9127459576571</v>
       </c>
       <c r="Y46" t="n">
-        <v>33.50263894448064</v>
+        <v>33.50263894448065</v>
       </c>
     </row>
   </sheetData>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>88.66904943666836</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>81.64089149439079</v>
+        <v>212.8424216770731</v>
       </c>
       <c r="L11" t="n">
-        <v>195.209768335715</v>
+        <v>64.00823815303261</v>
       </c>
       <c r="M11" t="n">
-        <v>57.58803130910192</v>
+        <v>108.3619957563788</v>
       </c>
       <c r="N11" t="n">
-        <v>166.4081024218203</v>
+        <v>35.20657223913796</v>
       </c>
       <c r="O11" t="n">
         <v>46.71452868057705</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>43.80516699547515</v>
+        <v>175.0066971781575</v>
       </c>
       <c r="L12" t="n">
-        <v>143.3125374902029</v>
+        <v>12.11100730752052</v>
       </c>
       <c r="M12" t="n">
-        <v>46.09156927940774</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>111.0844897311586</v>
       </c>
       <c r="O12" t="n">
-        <v>135.2426059268386</v>
+        <v>70.24968547508767</v>
       </c>
       <c r="P12" t="n">
         <v>153.9731994755838</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>88.66904943666836</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>81.64089149439079</v>
@@ -8938,10 +8938,10 @@
         <v>170.4336974434447</v>
       </c>
       <c r="N14" t="n">
-        <v>53.56243628747751</v>
+        <v>104.3364007347544</v>
       </c>
       <c r="O14" t="n">
-        <v>177.9160588632594</v>
+        <v>46.71452868057705</v>
       </c>
       <c r="P14" t="n">
         <v>205.9207954498629</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>71.81860461986395</v>
       </c>
       <c r="K15" t="n">
         <v>175.0066971781575</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4.041075744156217</v>
+        <v>104.4050757441089</v>
       </c>
       <c r="P15" t="n">
         <v>153.9731994755838</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.7372578703201</v>
+        <v>65.64568859091231</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9172,16 +9172,16 @@
         <v>195.209768335715</v>
       </c>
       <c r="M17" t="n">
-        <v>84.70505978146625</v>
+        <v>39.23216726076237</v>
       </c>
       <c r="N17" t="n">
-        <v>166.4081024218203</v>
+        <v>80.67946475984184</v>
       </c>
       <c r="O17" t="n">
         <v>46.71452868057705</v>
       </c>
       <c r="P17" t="n">
-        <v>74.71926526718059</v>
+        <v>205.9207954498629</v>
       </c>
       <c r="Q17" t="n">
         <v>104.7703964521349</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>43.80516699547515</v>
+        <v>175.0066971781575</v>
       </c>
       <c r="L18" t="n">
         <v>12.11100730752052</v>
       </c>
       <c r="M18" t="n">
-        <v>66.20860973093151</v>
+        <v>46.09156927940774</v>
       </c>
       <c r="N18" t="n">
-        <v>111.0844897311586</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>135.2426059268386</v>
+        <v>4.041075744156217</v>
       </c>
       <c r="P18" t="n">
-        <v>22.77166929290142</v>
+        <v>153.9731994755838</v>
       </c>
       <c r="Q18" t="n">
         <v>196.8472187735946</v>
@@ -9403,25 +9403,25 @@
         <v>88.66904943666836</v>
       </c>
       <c r="K20" t="n">
-        <v>212.8424216770731</v>
+        <v>81.64089149439079</v>
       </c>
       <c r="L20" t="n">
-        <v>64.00823815303261</v>
+        <v>195.209768335715</v>
       </c>
       <c r="M20" t="n">
-        <v>170.4336974434447</v>
+        <v>57.58803130910192</v>
       </c>
       <c r="N20" t="n">
-        <v>161.1070304952473</v>
+        <v>35.20657223913796</v>
       </c>
       <c r="O20" t="n">
         <v>177.9160588632594</v>
       </c>
       <c r="P20" t="n">
-        <v>74.71926526718059</v>
+        <v>205.9207954498629</v>
       </c>
       <c r="Q20" t="n">
-        <v>104.7703964521349</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,25 +9479,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>71.81860461986395</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>43.80516699547515</v>
+        <v>175.0066971781575</v>
       </c>
       <c r="L21" t="n">
         <v>12.11100730752052</v>
       </c>
       <c r="M21" t="n">
-        <v>100.3639999999526</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>111.0844897311586</v>
       </c>
       <c r="O21" t="n">
-        <v>135.2426059268386</v>
+        <v>70.24968547508767</v>
       </c>
       <c r="P21" t="n">
-        <v>153.9731994755838</v>
+        <v>22.77166929290142</v>
       </c>
       <c r="Q21" t="n">
         <v>196.8472187735946</v>
@@ -9655,7 +9655,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714822</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>206.4211619857846</v>
+        <v>61.98956284084764</v>
       </c>
       <c r="Q24" t="n">
-        <v>65.64568859091231</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>71.81860461986395</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>407.9358878163923</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>137.3891134776401</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>65.64568859091231</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>152.4236303584262</v>
       </c>
       <c r="L30" t="n">
-        <v>114.3671395043696</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>65.64568859091231</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>71.81860461986395</v>
       </c>
       <c r="K33" t="n">
-        <v>152.4236303584262</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10445,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>260.6935927063296</v>
       </c>
       <c r="Q33" t="n">
         <v>65.64568859091231</v>
@@ -10588,22 +10588,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>81.64089149439079</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>140.6606868230678</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>164.9213185121297</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>74.71926526718059</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>71.81860461986395</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>43.80516699547515</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>12.11100730752052</v>
       </c>
       <c r="M36" t="n">
         <v>413.363569001375</v>
       </c>
       <c r="N36" t="n">
-        <v>398.6659463544842</v>
+        <v>258.8665516298082</v>
       </c>
       <c r="O36" t="n">
-        <v>25.83448814882635</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>65.64568859091231</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>167.4175268077571</v>
+        <v>88.66904943666836</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>239.691966614486</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>39.23216726076237</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>74.71926526718059</v>
       </c>
       <c r="Q38" t="n">
         <v>104.7703964521349</v>
@@ -10907,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>126.5459597923919</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>413.363569001375</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>169.0691834903084</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11062,7 +11062,7 @@
         <v>88.66904943666836</v>
       </c>
       <c r="K41" t="n">
-        <v>239.6919666144856</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>296.3467353060666</v>
       </c>
       <c r="P41" t="n">
         <v>74.71926526718059</v>
@@ -11147,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>223.3416142108528</v>
+        <v>120.3667672034046</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>398.6659463544843</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>22.77166929290142</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>88.66904943666836</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11308,16 +11308,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>35.20657223913796</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>215.9191695706613</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>74.71926526718059</v>
       </c>
       <c r="Q44" t="n">
-        <v>175.3778597639994</v>
+        <v>104.7703964521349</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>71.81860461986395</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>43.80516699547515</v>
       </c>
       <c r="L45" t="n">
-        <v>126.5459597923919</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>413.363569001375</v>
+        <v>189.7673370184091</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>398.6659463544843</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>65.64568859091231</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.5323114807982</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>347.8677771616162</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>53.0165530960912</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T11" t="n">
-        <v>218.3313648658995</v>
+        <v>87.12983468321718</v>
       </c>
       <c r="U11" t="n">
         <v>251.2585806574976</v>
@@ -23320,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>218.0394385347307</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>335.6685077678235</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.33165346718499</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23351,10 +23351,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>5.559639966616629</v>
+        <v>127.8100604402157</v>
       </c>
       <c r="H12" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>69.34652732857948</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S12" t="n">
-        <v>29.66480055310342</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T12" t="n">
         <v>197.8174615641865</v>
       </c>
       <c r="U12" t="n">
-        <v>225.903069777428</v>
+        <v>94.70153959474564</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>101.5990569667429</v>
       </c>
       <c r="W12" t="n">
-        <v>200.1339115947375</v>
+        <v>120.4934529782373</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.5499336106988</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>76.15191607533066</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>14.2195178402489</v>
       </c>
       <c r="G13" t="n">
         <v>167.5027591842993</v>
@@ -23436,7 +23436,7 @@
         <v>157.8864513226399</v>
       </c>
       <c r="I13" t="n">
-        <v>140.7683627807171</v>
+        <v>9.566832598034722</v>
       </c>
       <c r="J13" t="n">
         <v>58.84201380359813</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>155.3412370008718</v>
+        <v>24.13970681818944</v>
       </c>
       <c r="S13" t="n">
         <v>215.5082519109386</v>
       </c>
       <c r="T13" t="n">
-        <v>94.65802759237232</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U13" t="n">
-        <v>155.0908689824907</v>
+        <v>286.2923991651731</v>
       </c>
       <c r="V13" t="n">
-        <v>120.9361131411457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23509,10 +23509,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>298.6520266009922</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H14" t="n">
-        <v>328.3281935684761</v>
+        <v>197.1266633857937</v>
       </c>
       <c r="I14" t="n">
         <v>168.5152279305241</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>53.0165530960912</v>
@@ -23551,7 +23551,7 @@
         <v>87.12983468321718</v>
       </c>
       <c r="U14" t="n">
-        <v>120.0570504748152</v>
+        <v>217.1959877468521</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23579,7 +23579,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>16.24353538195641</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23588,7 +23588,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>5.559639966616629</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H15" t="n">
         <v>106.6111980758233</v>
@@ -23624,19 +23624,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>160.8663307357858</v>
+        <v>29.66480055310342</v>
       </c>
       <c r="T15" t="n">
-        <v>146.2563899980044</v>
+        <v>66.61593138150411</v>
       </c>
       <c r="U15" t="n">
-        <v>225.903069777428</v>
+        <v>174.3419982112459</v>
       </c>
       <c r="V15" t="n">
-        <v>101.5990569667429</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>120.4934529782373</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.63044999925495</v>
+        <v>64.26967239703067</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>17.41394283553001</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>157.8864513226399</v>
       </c>
       <c r="I16" t="n">
-        <v>140.7683627807171</v>
+        <v>9.566832598034722</v>
       </c>
       <c r="J16" t="n">
         <v>58.84201380359813</v>
@@ -23703,19 +23703,19 @@
         <v>155.3412370008718</v>
       </c>
       <c r="S16" t="n">
-        <v>215.5082519109386</v>
+        <v>84.30672172825621</v>
       </c>
       <c r="T16" t="n">
-        <v>94.65802759237232</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U16" t="n">
         <v>286.2923991651731</v>
       </c>
       <c r="V16" t="n">
-        <v>120.9361131411457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>170.9606905516844</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,10 +23737,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>223.4815114380006</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>266.3680622873551</v>
       </c>
       <c r="F17" t="n">
         <v>275.6745155590291</v>
@@ -23749,10 +23749,10 @@
         <v>414.2143343858988</v>
       </c>
       <c r="H17" t="n">
-        <v>328.3281935684761</v>
+        <v>197.1266633857937</v>
       </c>
       <c r="I17" t="n">
-        <v>52.95292014561755</v>
+        <v>168.5152279305241</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>218.3313648658995</v>
       </c>
       <c r="U17" t="n">
-        <v>120.0570504748152</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>238.5295704957867</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23825,7 +23825,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>21.1988623643924</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H18" t="n">
         <v>106.6111980758233</v>
@@ -23861,7 +23861,7 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S18" t="n">
-        <v>29.66480055310342</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T18" t="n">
         <v>197.8174615641865</v>
@@ -23873,13 +23873,13 @@
         <v>101.5990569667429</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>120.4934529782373</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>90.12038799239777</v>
       </c>
     </row>
     <row r="19">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.63044999925495</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>36.04529091594549</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23943,19 +23943,19 @@
         <v>215.5082519109386</v>
       </c>
       <c r="T19" t="n">
-        <v>225.8595577750547</v>
+        <v>94.65802759237232</v>
       </c>
       <c r="U19" t="n">
         <v>170.7300913802665</v>
       </c>
       <c r="V19" t="n">
-        <v>120.9361131411457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>155.3214681539087</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>94.5081252063548</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>348.671248752835</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23983,10 +23983,10 @@
         <v>275.6745155590291</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2143343858988</v>
+        <v>283.0128042032164</v>
       </c>
       <c r="H20" t="n">
-        <v>197.1266633857937</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I20" t="n">
         <v>168.5152279305241</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S20" t="n">
         <v>184.2180832787735</v>
       </c>
       <c r="T20" t="n">
-        <v>218.3313648658995</v>
+        <v>87.12983468321718</v>
       </c>
       <c r="U20" t="n">
         <v>251.2585806574976</v>
@@ -24031,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>218.0394385347307</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>254.1687928935624</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24059,13 +24059,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>136.1181026843007</v>
       </c>
       <c r="G21" t="n">
         <v>5.559639966616629</v>
       </c>
       <c r="H21" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>69.34652732857948</v>
@@ -24101,10 +24101,10 @@
         <v>29.66480055310342</v>
       </c>
       <c r="T21" t="n">
-        <v>66.61593138150411</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U21" t="n">
-        <v>110.3407619925214</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24116,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>74.48116559462201</v>
       </c>
     </row>
     <row r="22">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.63044999925495</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>33.05316523330578</v>
+        <v>17.41394283553001</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>29.85874023802465</v>
       </c>
       <c r="G22" t="n">
         <v>167.5027591842993</v>
       </c>
       <c r="H22" t="n">
-        <v>157.8864513226399</v>
+        <v>26.68492113995757</v>
       </c>
       <c r="I22" t="n">
         <v>140.7683627807171</v>
@@ -24183,19 +24183,19 @@
         <v>225.8595577750547</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2923991651731</v>
+        <v>155.0908689824907</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>155.3214681539087</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>87.38312316941244</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>414.2143343858988</v>
@@ -24226,7 +24226,7 @@
         <v>328.3281935684761</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>168.5152279305241</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>110.493650943605</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>291.3705680669655</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24287,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>17.21202127680887</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>160.8663307357858</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>114.7033067200246</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.5027591842993</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>157.8864513226399</v>
       </c>
       <c r="I25" t="n">
-        <v>140.7683627807171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>58.84201380359813</v>
@@ -24411,7 +24411,7 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R25" t="n">
-        <v>155.3412370008718</v>
+        <v>100.8794232795037</v>
       </c>
       <c r="S25" t="n">
         <v>215.5082519109386</v>
@@ -24420,13 +24420,13 @@
         <v>225.8595577750547</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2923991651731</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>63.64849916881047</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,22 +24448,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>414.2143343858988</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>168.5152279305241</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>114.1483882598476</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>161.0024174893243</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>105.7872273898558</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S27" t="n">
-        <v>160.8663307357858</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>197.8174615641865</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>153.5955803628786</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.5027591842993</v>
       </c>
       <c r="H28" t="n">
-        <v>157.8864513226399</v>
+        <v>134.4702978910672</v>
       </c>
       <c r="I28" t="n">
         <v>140.7683627807171</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.28026121366808</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>155.3412370008718</v>
@@ -24660,10 +24660,10 @@
         <v>286.2923991651731</v>
       </c>
       <c r="V28" t="n">
-        <v>29.49374332746538</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>133.3108774319011</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H29" t="n">
-        <v>264.6216920706058</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>168.5152279305241</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>81.49971487426106</v>
       </c>
       <c r="S29" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2585806574976</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24770,7 +24770,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>8.405648563044508</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24779,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>147.9287274487972</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>215.5082519109386</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U31" t="n">
-        <v>2.985058607274198</v>
+        <v>286.2923991651731</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>29.49374332746538</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>6.12784492022098</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H32" t="n">
         <v>328.3281935684761</v>
@@ -24973,19 +24973,19 @@
         <v>218.3313648658995</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2585806574976</v>
+        <v>68.73163461727421</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>84.24905303429901</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25007,13 +25007,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I33" t="n">
         <v>69.34652732857948</v>
@@ -25046,10 +25046,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>160.8663307357858</v>
+        <v>54.4912647157649</v>
       </c>
       <c r="T33" t="n">
-        <v>197.8174615641865</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.5027591842993</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>157.8864513226399</v>
@@ -25125,13 +25125,13 @@
         <v>155.3412370008718</v>
       </c>
       <c r="S34" t="n">
-        <v>215.5082519109386</v>
+        <v>99.70367053733889</v>
       </c>
       <c r="T34" t="n">
-        <v>225.8595577750547</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>2.835156221256625</v>
+        <v>286.2923991651731</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>168.5152279305241</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>81.49971487426106</v>
+        <v>66.16446660584222</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2585806574976</v>
       </c>
       <c r="V35" t="n">
-        <v>204.6911281787632</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>112.67236155506</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25244,16 +25244,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.761170149299</v>
+        <v>38.2047024194233</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>160.8663307357858</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>44.99021025623315</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.5027591842993</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>8.397767725583947</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>328.3281935684761</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>184.2180832787735</v>
       </c>
       <c r="T38" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>102.118513311557</v>
+        <v>101.6500669491951</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25469,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>98.11627123085177</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>106.6111980758233</v>
+        <v>32.52795205494333</v>
       </c>
       <c r="I39" t="n">
         <v>69.34652732857948</v>
@@ -25520,22 +25520,22 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U39" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>30.22354080128051</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>157.8864513226399</v>
       </c>
       <c r="I40" t="n">
-        <v>140.7683627807171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>58.84201380359813</v>
@@ -25599,10 +25599,10 @@
         <v>155.3412370008718</v>
       </c>
       <c r="S40" t="n">
-        <v>215.5082519109386</v>
+        <v>72.96927413375667</v>
       </c>
       <c r="T40" t="n">
-        <v>225.8595577750547</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2923991651731</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>208.1001158921388</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>287.248222557434</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>168.5152279305241</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>184.2180832787735</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U41" t="n">
         <v>251.2585806574976</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25715,10 +25715,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>113.33384793509</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>136.761170149299</v>
@@ -25757,10 +25757,10 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S42" t="n">
-        <v>160.8663307357858</v>
+        <v>2.770163736409472</v>
       </c>
       <c r="T42" t="n">
-        <v>197.8174615641865</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25830,22 +25830,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.28026121366808</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>215.5082519109386</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.8595577750547</v>
+        <v>132.8224095675795</v>
       </c>
       <c r="U43" t="n">
         <v>286.2923991651731</v>
       </c>
       <c r="V43" t="n">
-        <v>116.896635343841</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>414.2143343858988</v>
       </c>
       <c r="H44" t="n">
-        <v>228.203973150379</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I44" t="n">
         <v>168.5152279305241</v>
@@ -25927,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>216.6104045481241</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>100.5168781044351</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,19 +25994,19 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S45" t="n">
-        <v>74.67704182757532</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.8174615641865</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>215.5082519109386</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U46" t="n">
         <v>286.2923991651731</v>
       </c>
       <c r="V46" t="n">
-        <v>124.1715397668008</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>90.46864740905013</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>380888.2102562445</v>
+        <v>380888.2102562444</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>380888.2102562446</v>
+        <v>380888.2102562445</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659782.9801016063</v>
+        <v>659782.9801016062</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>659782.9801016063</v>
+        <v>659782.9801016062</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>572407.3662001548</v>
+        <v>572407.3662001549</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>572407.3662001545</v>
+        <v>572407.3662001549</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.528634001</v>
       </c>
       <c r="C2" t="n">
         <v>553011.528634001</v>
@@ -26340,22 +26340,22 @@
         <v>343162.7987343314</v>
       </c>
       <c r="K2" t="n">
-        <v>343162.7987343315</v>
+        <v>343162.7987343314</v>
       </c>
       <c r="L2" t="n">
-        <v>343162.7987343315</v>
+        <v>343162.7987343313</v>
       </c>
       <c r="M2" t="n">
         <v>301232.9046566127</v>
       </c>
       <c r="N2" t="n">
-        <v>301232.9046566125</v>
+        <v>301232.9046566128</v>
       </c>
       <c r="O2" t="n">
         <v>301232.9046566127</v>
       </c>
       <c r="P2" t="n">
-        <v>301232.9046566127</v>
+        <v>301232.9046566128</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>111363.1906344404</v>
+        <v>111363.1906344405</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>47630.13748734815</v>
       </c>
       <c r="F4" t="n">
-        <v>47630.13748734815</v>
+        <v>47630.13748734816</v>
       </c>
       <c r="G4" t="n">
         <v>47630.13748734815</v>
@@ -26453,13 +26453,13 @@
         <v>92988.22847095781</v>
       </c>
       <c r="N4" t="n">
-        <v>92988.22847095782</v>
+        <v>92988.22847095784</v>
       </c>
       <c r="O4" t="n">
-        <v>92988.22847095782</v>
+        <v>92988.22847095784</v>
       </c>
       <c r="P4" t="n">
-        <v>92988.22847095781</v>
+        <v>92988.22847095784</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104567.3942423609</v>
+        <v>104607.116443174</v>
       </c>
       <c r="C6" t="n">
-        <v>104567.3942423609</v>
+        <v>104607.116443174</v>
       </c>
       <c r="D6" t="n">
-        <v>104567.3942423609</v>
+        <v>104607.1164431739</v>
       </c>
       <c r="E6" t="n">
-        <v>-121643.4746794351</v>
+        <v>-110147.5850885848</v>
       </c>
       <c r="F6" t="n">
-        <v>135043.9676848567</v>
+        <v>146539.8572757071</v>
       </c>
       <c r="G6" t="n">
-        <v>135043.9676848567</v>
+        <v>146539.8572757071</v>
       </c>
       <c r="H6" t="n">
-        <v>135043.9676848567</v>
+        <v>146539.8572757072</v>
       </c>
       <c r="I6" t="n">
-        <v>70960.42735778831</v>
+        <v>77995.10722192362</v>
       </c>
       <c r="J6" t="n">
-        <v>182323.6179922288</v>
+        <v>189358.2978563642</v>
       </c>
       <c r="K6" t="n">
-        <v>182323.6179922289</v>
+        <v>189358.2978563642</v>
       </c>
       <c r="L6" t="n">
-        <v>182323.6179922289</v>
+        <v>189358.2978563641</v>
       </c>
       <c r="M6" t="n">
-        <v>167511.2625187177</v>
+        <v>175943.605518777</v>
       </c>
       <c r="N6" t="n">
-        <v>167511.2625187174</v>
+        <v>175943.605518777</v>
       </c>
       <c r="O6" t="n">
-        <v>167511.2625187177</v>
+        <v>175943.6055187769</v>
       </c>
       <c r="P6" t="n">
-        <v>167511.2625187177</v>
+        <v>175943.605518777</v>
       </c>
     </row>
   </sheetData>
@@ -26825,13 +26825,13 @@
         <v>418.782986806008</v>
       </c>
       <c r="N4" t="n">
-        <v>418.782986806008</v>
+        <v>418.7829868060081</v>
       </c>
       <c r="O4" t="n">
-        <v>418.782986806008</v>
+        <v>418.7829868060081</v>
       </c>
       <c r="P4" t="n">
-        <v>418.782986806008</v>
+        <v>418.7829868060081</v>
       </c>
     </row>
   </sheetData>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>80.42756573540541</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="L11" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>18.35586404833955</v>
+        <v>69.12982849561647</v>
       </c>
       <c r="N11" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>54.2724307205449</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5.4194178046329</v>
+      </c>
+      <c r="N12" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="M12" t="n">
-        <v>51.51098708404064</v>
-      </c>
-      <c r="N12" t="n">
-        <v>20.11704045152376</v>
-      </c>
       <c r="O12" t="n">
-        <v>131.2015301826823</v>
+        <v>66.20860973093146</v>
       </c>
       <c r="P12" t="n">
         <v>131.2015301826823</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>34.45281568100845</v>
+        <v>34.45281568100848</v>
       </c>
       <c r="L13" t="n">
         <v>100.1750500621707</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>80.42756573540541</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35658,10 +35658,10 @@
         <v>131.2015301826823</v>
       </c>
       <c r="N14" t="n">
-        <v>18.35586404833955</v>
+        <v>69.12982849561647</v>
       </c>
       <c r="O14" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>131.2015301826823</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>54.2724307205449</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>131.2015301826823</v>
@@ -35740,13 +35740,13 @@
         <v>20.11704045152376</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>100.3639999999527</v>
       </c>
       <c r="P15" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.09156927940775</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,16 +35892,16 @@
         <v>131.2015301826823</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>45.47289252070389</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>54.2724307205449</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>71.62802753556441</v>
+        <v>51.51098708404064</v>
       </c>
       <c r="N18" t="n">
+        <v>20.11704045152376</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="O18" t="n">
-        <v>131.2015301826823</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>131.2015301826823</v>
@@ -36123,25 +36123,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
       <c r="M20" t="n">
-        <v>131.2015301826823</v>
+        <v>18.35586404833955</v>
       </c>
       <c r="N20" t="n">
-        <v>125.9004582561093</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>107.5445942077698</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>54.2724307205449</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>105.7834178045855</v>
+        <v>5.4194178046329</v>
       </c>
       <c r="N21" t="n">
-        <v>20.11704045152376</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="O21" t="n">
-        <v>131.2015301826823</v>
+        <v>66.20860973093146</v>
       </c>
       <c r="P21" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>131.2015301826823</v>
@@ -36375,7 +36375,7 @@
         <v>334.0856525821683</v>
       </c>
       <c r="P23" t="n">
-        <v>247.0794429043017</v>
+        <v>247.0794429043021</v>
       </c>
       <c r="Q23" t="n">
         <v>107.5445942077698</v>
@@ -36454,10 +36454,10 @@
         <v>389.8212435325733</v>
       </c>
       <c r="P24" t="n">
-        <v>183.6494926928832</v>
+        <v>39.21789354794622</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>144.4315991449368</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>247.0794429043021</v>
       </c>
       <c r="Q26" t="n">
-        <v>107.5445942077694</v>
+        <v>107.5445942077698</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>54.2724307205449</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>220.6600700171035</v>
@@ -36682,19 +36682,19 @@
         <v>358.7293379959386</v>
       </c>
       <c r="M27" t="n">
-        <v>471.1244815546328</v>
+        <v>413.3553056210253</v>
       </c>
       <c r="N27" t="n">
         <v>499.4594147950773</v>
       </c>
       <c r="O27" t="n">
-        <v>133.3480377334838</v>
+        <v>389.8212435325733</v>
       </c>
       <c r="P27" t="n">
         <v>295.6910993470357</v>
       </c>
       <c r="Q27" t="n">
-        <v>144.4315991449368</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>247.0794429043021</v>
       </c>
       <c r="Q29" t="n">
-        <v>107.5445942077698</v>
+        <v>107.5445942077694</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>54.2724307205449</v>
       </c>
       <c r="K30" t="n">
-        <v>220.6600700171035</v>
+        <v>108.618463362951</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2561321968491</v>
+        <v>358.7293379959386</v>
       </c>
       <c r="M30" t="n">
         <v>471.1244815546328</v>
@@ -36931,7 +36931,7 @@
         <v>295.6910993470357</v>
       </c>
       <c r="Q30" t="n">
-        <v>144.4315991449368</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>80.42756573540541</v>
+        <v>80.42756573540493</v>
       </c>
       <c r="K32" t="n">
         <v>242.504521076774</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>54.2724307205449</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>108.618463362951</v>
+        <v>220.6600700171035</v>
       </c>
       <c r="L33" t="n">
         <v>358.7293379959386</v>
@@ -37165,7 +37165,7 @@
         <v>389.8212435325733</v>
       </c>
       <c r="P33" t="n">
-        <v>295.6910993470357</v>
+        <v>237.9219234134282</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>80.42756573540541</v>
       </c>
       <c r="K35" t="n">
-        <v>242.504521076774</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>353.6529763974178</v>
+        <v>76.65244867003518</v>
       </c>
       <c r="M35" t="n">
         <v>410.2813662320701</v>
       </c>
       <c r="N35" t="n">
-        <v>129.7147462729917</v>
+        <v>402.1403521728462</v>
       </c>
       <c r="O35" t="n">
         <v>334.0856525821683</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>247.0794429043021</v>
       </c>
       <c r="Q35" t="n">
         <v>107.5445942077698</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>54.2724307205449</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>220.6600700171035</v>
       </c>
       <c r="L36" t="n">
-        <v>358.7293379959386</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>418.782986806008</v>
       </c>
       <c r="N36" t="n">
-        <v>418.782986806008</v>
+        <v>278.983592081332</v>
       </c>
       <c r="O36" t="n">
-        <v>21.79341240467013</v>
+        <v>389.8212435325733</v>
       </c>
       <c r="P36" t="n">
         <v>295.6910993470357</v>
       </c>
       <c r="Q36" t="n">
-        <v>144.4315991449368</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>78.74847737108877</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>242.504521076774</v>
+        <v>158.0510751200952</v>
       </c>
       <c r="L38" t="n">
         <v>353.6529763974178</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>410.2813662320701</v>
       </c>
       <c r="N38" t="n">
         <v>402.1403521728462</v>
@@ -37560,7 +37560,7 @@
         <v>334.0856525821683</v>
       </c>
       <c r="P38" t="n">
-        <v>247.0794429043021</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>220.6600700171035</v>
       </c>
       <c r="L39" t="n">
-        <v>114.4349524848714</v>
+        <v>358.7293379959386</v>
       </c>
       <c r="M39" t="n">
-        <v>418.782986806008</v>
+        <v>5.4194178046329</v>
       </c>
       <c r="N39" t="n">
-        <v>20.11704045152376</v>
+        <v>189.1862239418322</v>
       </c>
       <c r="O39" t="n">
         <v>389.8212435325733</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>158.0510751200948</v>
+        <v>242.504521076774</v>
       </c>
       <c r="L41" t="n">
         <v>353.6529763974178</v>
@@ -37794,7 +37794,7 @@
         <v>402.1403521728462</v>
       </c>
       <c r="O41" t="n">
-        <v>334.0856525821683</v>
+        <v>249.6322066254896</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>358.7293379959386</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7610320154857</v>
+        <v>125.7861850080375</v>
       </c>
       <c r="N42" t="n">
-        <v>20.11704045152376</v>
+        <v>418.7829868060081</v>
       </c>
       <c r="O42" t="n">
         <v>389.8212435325733</v>
       </c>
       <c r="P42" t="n">
-        <v>295.6910993470357</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>144.4315991449368</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>80.42756573540541</v>
       </c>
       <c r="K44" t="n">
         <v>242.504521076774</v>
@@ -38028,16 +38028,16 @@
         <v>410.2813662320701</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>402.1403521728462</v>
       </c>
       <c r="O44" t="n">
-        <v>334.0856525821683</v>
+        <v>169.2046408900843</v>
       </c>
       <c r="P44" t="n">
-        <v>247.0794429043021</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>70.60746331186454</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>54.2724307205449</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>220.6600700171035</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>114.4349524848714</v>
+        <v>358.7293379959386</v>
       </c>
       <c r="M45" t="n">
-        <v>418.782986806008</v>
+        <v>195.186754823042</v>
       </c>
       <c r="N45" t="n">
-        <v>20.11704045152376</v>
+        <v>418.7829868060081</v>
       </c>
       <c r="O45" t="n">
         <v>389.8212435325733</v>
@@ -38116,7 +38116,7 @@
         <v>295.6910993470357</v>
       </c>
       <c r="Q45" t="n">
-        <v>144.4315991449368</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
